--- a/品牌广告明细sku.xlsx
+++ b/品牌广告明细sku.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="品牌广告" sheetId="1" r:id="rId1"/>
+    <sheet name="币种汇率" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>广告活动名称</t>
   </si>
@@ -52,7 +53,16 @@
     <t>Y3060-OR+Y3061+Y3062</t>
   </si>
   <si>
-    <t>Car Air Fresheners 商品集SB1</t>
+    <t>币别</t>
+  </si>
+  <si>
+    <t>汇率</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>CA</t>
   </si>
 </sst>
 </file>
@@ -246,169 +256,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +573,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,16 +597,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -605,78 +615,78 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,7 +697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,9 +708,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,16 +1235,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="22.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1312,44 +1319,45 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>6.85</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>
